--- a/doc/导入课程任务测试数据高一123班 - 副本.xlsx
+++ b/doc/导入课程任务测试数据高一123班 - 副本.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="168">
   <si>
     <t>课程计划导入模板(请严格对照数据库信息填写)</t>
   </si>
@@ -1470,234 +1470,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200104</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑小红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <r>
-      <t>45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩云</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡冬梅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三封</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>江晓东</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘楠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>莫小新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡小小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张小龙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张杰</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2740,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:L65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3914,7 +3687,7 @@
         <v>10037</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>126</v>
@@ -4241,498 +4014,138 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40">
-        <v>10029</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41">
-        <v>10033</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F42">
-        <v>10020</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43">
-        <v>10035</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44">
-        <v>10039</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45">
-        <v>10038</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="D45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F46">
-        <v>10036</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F47">
-        <v>10031</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="B47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48">
-        <v>10040</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="B48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F49">
-        <v>10039</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="B49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F50">
-        <v>10041</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="B50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F51">
-        <v>10025</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="B51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F52">
-        <v>10023</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D53" s="2"/>
